--- a/biology/Médecine/Amplitude_Surgical/Amplitude_Surgical.xlsx
+++ b/biology/Médecine/Amplitude_Surgical/Amplitude_Surgical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amplitude Surgical conçoit, fabrique et commercialise des implants dédiés à la chirurgie des articulations du genou et de la hanche pour les établissements hospitaliers.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société a été créée en 2011[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société a été créée en 2011.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Stratégie aux États-Unis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amplitude Surgical a obtenu en 2019 l’autorisation de l’autorité sanitaire américaine pour une prothèse anatomique du genou. L’objectif est d’atteindre 20 millions de dollars avec les prothèses du genou et de la hanche aux États-Unis[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amplitude Surgical a obtenu en 2019 l’autorisation de l’autorité sanitaire américaine pour une prothèse anatomique du genou. L’objectif est d’atteindre 20 millions de dollars avec les prothèses du genou et de la hanche aux États-Unis.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste de principaux actionnaires au 16 octobre 2019[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste de principaux actionnaires au 16 octobre 2019.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Bourse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La société est cotée à la bourse d'Euronext Paris.
 </t>
